--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>code system InterOp'Santé - Statut d'une ligne de traitement d'une FCT</t>
+    <t>code system Interop'Santé - Statut d'une ligne de traitement d'une FCT</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-medication-reconciliation-status</t>
+    <t>https://hl7.fr/ig/fhir/medication/CodeSystem/fr-medication-reconciliation-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrMedicationReconciliationStatus</t>
+    <t>FRMedicationReconciliationStatus</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/main/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
